--- a/my-app/regionseng/11/employment and unemployment/wages.xlsx
+++ b/my-app/regionseng/11/employment and unemployment/wages.xlsx
@@ -19,7 +19,7 @@
     <t>GEL</t>
   </si>
   <si>
-    <t xml:space="preserve">Mtskheta-Mtianeti </t>
+    <t>Tbilisi</t>
   </si>
   <si>
     <t>* Some enterprise and organizations are represented by the location of the head office</t>
@@ -192,11 +192,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -519,21 +519,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -546,7 +546,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -594,40 +594,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="8">
-        <v>432.60929820647004</v>
+        <v>752.9959022556659</v>
       </c>
       <c r="C4" s="8">
-        <v>484.40947798355154</v>
+        <v>791.0133715762471</v>
       </c>
       <c r="D4" s="8">
-        <v>520.92415395873832</v>
+        <v>871.54772975856281</v>
       </c>
       <c r="E4" s="8">
-        <v>658.21360877538871</v>
+        <v>942.79206550781339</v>
       </c>
       <c r="F4" s="8">
-        <v>685.17253163003954</v>
+        <v>997.17806795549063</v>
       </c>
       <c r="G4" s="8">
-        <v>737.9383035664207</v>
+        <v>1077.5421556093454</v>
       </c>
       <c r="H4" s="8">
-        <v>765.91563233540717</v>
+        <v>1135.0567340179502</v>
       </c>
       <c r="I4" s="8">
-        <v>795.03277169852549</v>
+        <v>1209.3890365397749</v>
       </c>
       <c r="J4" s="8">
-        <v>818.0892036192173</v>
+        <v>1286.3639872633394</v>
       </c>
       <c r="K4" s="8">
-        <v>901.94403979132721</v>
+        <v>1349.9996090740901</v>
       </c>
       <c r="L4" s="8">
-        <v>1044.5451990838085</v>
+        <v>1394.3733990921128</v>
       </c>
       <c r="M4" s="8">
-        <v>1095.4799013792854</v>
+        <v>1538.8012803446084</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -640,6 +640,6 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>